--- a/CashFlow/AMD_cashflow.xlsx
+++ b/CashFlow/AMD_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>5668000000.0</v>
+        <v>-597000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>5071000000.0</v>
+        <v>-417000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>3730000000.0</v>
+        <v>-252000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>2413000000.0</v>
+        <v>-309000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1029000000.0</v>
+        <v>-101000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-137000000.0</v>
@@ -1016,19 +1016,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>370000000.0</v>
+        <v>3396000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>-513000000.0</v>
+        <v>3247000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>575000000.0</v>
+        <v>3253000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>378000000.0</v>
+        <v>2394000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>126000000.0</v>
+        <v>1421000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>373000000.0</v>
